--- a/BMIValues.xlsx
+++ b/BMIValues.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EF2DCBE-F228-4AC2-80A7-1FED0BD88AE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Height in cms</t>
   </si>
@@ -32,14 +33,11 @@
   <si>
     <t>BMI Category</t>
   </si>
-  <si>
-    <t>obese category</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -140,7 +138,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -175,7 +173,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -352,18 +350,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -395,12 +393,6 @@
       <c r="B2">
         <v>88</v>
       </c>
-      <c r="C2">
-        <v>179.59</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -409,12 +401,6 @@
       <c r="B3">
         <v>89</v>
       </c>
-      <c r="C3">
-        <v>210.65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -423,12 +409,6 @@
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4">
-        <v>918.27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -437,12 +417,6 @@
       <c r="B5">
         <v>88</v>
       </c>
-      <c r="C5">
-        <v>208.28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -451,12 +425,6 @@
       <c r="B6">
         <v>66</v>
       </c>
-      <c r="C6">
-        <v>340.9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -465,12 +433,6 @@
       <c r="B7">
         <v>55</v>
       </c>
-      <c r="C7">
-        <v>71.02</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -478,12 +440,6 @@
       </c>
       <c r="B8">
         <v>33</v>
-      </c>
-      <c r="C8">
-        <v>303.02999999999997</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -493,21 +449,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D70A201EA42C14CB4D1264D2A275AC8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc48167c35f9b04a9e4758e365e7810e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f27a68ee-cd89-4ec6-b618-f69dcfab5ccb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a95b835f5066ddaf9852eff346dc317e" ns2:_="">
     <xsd:import namespace="f27a68ee-cd89-4ec6-b618-f69dcfab5ccb"/>
@@ -639,24 +580,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425D5CE1-EC6D-40C8-B75C-5ABD05FE5848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F2C084-6134-4883-B10E-1D2082A8628F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{285C3CA6-8CBF-4B47-8918-737234F23A24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -672,4 +611,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F2C084-6134-4883-B10E-1D2082A8628F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425D5CE1-EC6D-40C8-B75C-5ABD05FE5848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/BMIValues.xlsx
+++ b/BMIValues.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{8EF2DCBE-F228-4AC2-80A7-1FED0BD88AE5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Height in cms</t>
   </si>
@@ -33,11 +32,14 @@
   <si>
     <t>BMI Category</t>
   </si>
+  <si>
+    <t>obese category</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -138,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -173,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -350,18 +352,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,6 +395,12 @@
       <c r="B2">
         <v>88</v>
       </c>
+      <c r="C2">
+        <v>179.59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -401,6 +409,12 @@
       <c r="B3">
         <v>89</v>
       </c>
+      <c r="C3">
+        <v>210.65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -409,6 +423,12 @@
       <c r="B4">
         <v>100</v>
       </c>
+      <c r="C4">
+        <v>918.27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -417,6 +437,12 @@
       <c r="B5">
         <v>88</v>
       </c>
+      <c r="C5">
+        <v>208.28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -425,6 +451,12 @@
       <c r="B6">
         <v>66</v>
       </c>
+      <c r="C6">
+        <v>340.9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -433,6 +465,12 @@
       <c r="B7">
         <v>55</v>
       </c>
+      <c r="C7">
+        <v>71.02</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -440,6 +478,12 @@
       </c>
       <c r="B8">
         <v>33</v>
+      </c>
+      <c r="C8">
+        <v>303.02999999999997</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -449,6 +493,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004D70A201EA42C14CB4D1264D2A275AC8" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc48167c35f9b04a9e4758e365e7810e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f27a68ee-cd89-4ec6-b618-f69dcfab5ccb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a95b835f5066ddaf9852eff346dc317e" ns2:_="">
     <xsd:import namespace="f27a68ee-cd89-4ec6-b618-f69dcfab5ccb"/>
@@ -580,22 +639,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425D5CE1-EC6D-40C8-B75C-5ABD05FE5848}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F2C084-6134-4883-B10E-1D2082A8628F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{285C3CA6-8CBF-4B47-8918-737234F23A24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -611,21 +672,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E9F2C084-6134-4883-B10E-1D2082A8628F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{425D5CE1-EC6D-40C8-B75C-5ABD05FE5848}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>